--- a/Instances/Inst40_1.xlsx
+++ b/Instances/Inst40_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Desktop\Estudo\Projetos\UTT\genetic-algorithm-tsptw\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD490E5-0548-4E2E-A504-C2F2A1C75F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594D8D4-12D6-4C4E-9D5D-BADCF9AA6B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Sommets</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Co X</t>
   </si>
@@ -42,13 +39,10 @@
     <t>bi</t>
   </si>
   <si>
-    <t>pénalité</t>
+    <t>vertice</t>
   </si>
   <si>
-    <t>demande</t>
-  </si>
-  <si>
-    <t>capa</t>
+    <t>lateness penalty</t>
   </si>
 </sst>
 </file>
@@ -419,44 +413,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="5" width="11.5703125"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -475,14 +465,8 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -501,11 +485,8 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -524,11 +505,8 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -547,11 +525,8 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -570,11 +545,8 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -593,11 +565,8 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -616,11 +585,8 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -639,11 +605,8 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -662,11 +625,8 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -685,11 +645,8 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -708,11 +665,8 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -731,11 +685,8 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -754,11 +705,8 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -777,11 +725,8 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -800,11 +745,8 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -823,11 +765,8 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -846,11 +785,8 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -869,11 +805,8 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -892,11 +825,8 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -915,11 +845,8 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -938,11 +865,8 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -961,11 +885,8 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -984,11 +905,8 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1007,11 +925,8 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1030,11 +945,8 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1053,11 +965,8 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1076,11 +985,8 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1099,11 +1005,8 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1122,11 +1025,8 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1145,11 +1045,8 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1168,11 +1065,8 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1191,11 +1085,8 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1214,11 +1105,8 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1237,11 +1125,8 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1260,11 +1145,8 @@
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1283,11 +1165,8 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1306,11 +1185,8 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1329,11 +1205,8 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1352,11 +1225,8 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1374,9 +1244,6 @@
       </c>
       <c r="F41">
         <v>1</v>
-      </c>
-      <c r="G41">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/Inst40_1.xlsx
+++ b/Instances/Inst40_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Desktop\Estudo\Projetos\UTT\genetic-algorithm-tsptw\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594D8D4-12D6-4C4E-9D5D-BADCF9AA6B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D8FAD-A0D3-462D-A9D0-E25882B5A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
